--- a/TestData/DataSheet2.xlsx
+++ b/TestData/DataSheet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\AllAuto\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE063CF7-3CBE-4ECE-8C86-5845CDCDBE9B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F07EB7-9215-46AC-9596-19DE56D85F51}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{710C8CB6-9B6E-49C7-A59E-71AC3C715BF0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Свеча зажигания</t>
-  </si>
-  <si>
     <t>SUZUKI</t>
   </si>
   <si>
@@ -58,6 +55,24 @@
   </si>
   <si>
     <t>Avatar</t>
+  </si>
+  <si>
+    <t>Подшипник ступицы передний</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>Подшипник ступицы задний</t>
+  </si>
+  <si>
+    <t>Масло трансмиссионное</t>
+  </si>
+  <si>
+    <t>Оригинал, 5л</t>
   </si>
 </sst>
 </file>
@@ -411,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9140A208-A4CE-4D8B-961F-3D7D0C8294EA}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD31"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,29 +465,190 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="E2" s="1">
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>3800</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44118</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44119</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44120</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>3100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44121</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>2300</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44122</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44122</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44122</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>100</v>
       </c>
     </row>
